--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/99.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/99.xlsx
@@ -479,13 +479,13 @@
         <v>-6.400168476585348</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69336362896717</v>
+        <v>-10.69337672127001</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.067859760580432</v>
+        <v>-4.068684575659461</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.727783652025392</v>
+        <v>-6.726683898586687</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         <v>-11.05029908134115</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.120870494786581</v>
+        <v>-4.12185241749971</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.743599153858197</v>
+        <v>-6.742656508053593</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.077335423683193</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88595458712284</v>
+        <v>-11.88599386403136</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.864955251139361</v>
+        <v>-3.865819343126915</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.576659200323347</v>
+        <v>-6.575716554518744</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.310008709746659</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73203156596654</v>
+        <v>-12.73195301214949</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.968973597216875</v>
+        <v>-3.97007335065558</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.912450583607938</v>
+        <v>-6.911363922472075</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.495480191197375</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.43963125765331</v>
+        <v>-13.43943487311068</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.721424335085518</v>
+        <v>-3.722484811615698</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.482708835131121</v>
+        <v>-6.481779281629359</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.661686531657184</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.12962180201796</v>
+        <v>-14.12941232517249</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.783573496675192</v>
+        <v>-3.784764896233789</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.655671247973165</v>
+        <v>-6.654754786774244</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.824739943681734</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.73861026870085</v>
+        <v>-14.7382829611298</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.598985118909696</v>
+        <v>-3.600045595439876</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.359628096116055</v>
+        <v>-6.358999665579652</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.004141391620166</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.6502796847816</v>
+        <v>-15.64992619260487</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.445726621844451</v>
+        <v>-3.446826375283156</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.166189321629552</v>
+        <v>-6.165927475572718</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2024015072828388</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.30173958188305</v>
+        <v>-16.30138608970632</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.439612516417365</v>
+        <v>-3.44079082367312</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.727662637945937</v>
+        <v>-5.727322238072053</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.5698868078081549</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.82306198873774</v>
+        <v>-16.82245974280702</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.287663249636292</v>
+        <v>-3.288749910772155</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.492930740296631</v>
+        <v>-5.492537971211379</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>1.308959797018411</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.45204240185994</v>
+        <v>-17.45151870974627</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.397821885746575</v>
+        <v>-3.398725254642654</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.895306392480361</v>
+        <v>-4.894900531092268</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.021273048559283</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.35029220752793</v>
+        <v>-18.34982088462562</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.177465336617484</v>
+        <v>-3.178381797816404</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.251819707809525</v>
+        <v>-4.251466215632798</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>2.706897330123789</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.09057028710764</v>
+        <v>-19.09030844105081</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.061218779685798</v>
+        <v>-3.06214833318756</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.676111874950304</v>
+        <v>-3.67547035211106</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>3.364850990735843</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.84111273211527</v>
+        <v>-19.84064140921297</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.990323959797851</v>
+        <v>-2.991305882510981</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.079875311235257</v>
+        <v>-3.079246880698855</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>3.995830267938649</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.6884203874261</v>
+        <v>-20.68775267998117</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.991358251722348</v>
+        <v>-2.992484189766736</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.457126834265715</v>
+        <v>-2.456197280763953</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>4.587184105822335</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.39914913949204</v>
+        <v>-21.39841597053291</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.912084358015696</v>
+        <v>-2.913210296060085</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.037361420554294</v>
+        <v>-2.036444959355373</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>5.117875067757927</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.30224309721146</v>
+        <v>-22.30143137443528</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.820451330426455</v>
+        <v>-2.821642729985053</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.820814731552145</v>
+        <v>-1.820068470290167</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>5.566394017131008</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.14356757012362</v>
+        <v>-23.14272966274175</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.827573543172354</v>
+        <v>-2.828660204308218</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.334658250130331</v>
+        <v>-1.333637050508676</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>5.909508319766608</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.94718621085161</v>
+        <v>-23.94641376498395</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.602464488111716</v>
+        <v>-2.603498780036213</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.108305426299729</v>
+        <v>-1.107454426615017</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>6.127465051888462</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.39249470740724</v>
+        <v>-24.39163061541969</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.439779533000428</v>
+        <v>-2.4407745480164</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7174609095656806</v>
+        <v>-0.7166099098809684</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>6.211124400239678</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.05546273870656</v>
+        <v>-25.05458555441617</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.221740321474322</v>
+        <v>-2.222591321159034</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5905572181208298</v>
+        <v>-0.5900858952185277</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>6.162273649262858</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.62661445017686</v>
+        <v>-25.62577654279499</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.215521477624502</v>
+        <v>-2.216359385006373</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2026322849204864</v>
+        <v>-0.2019253005670332</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>5.995175794337617</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.065429164523</v>
+        <v>-26.06460434944397</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.153673439000189</v>
+        <v>-2.1543673310508</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2510476208291894</v>
+        <v>-0.2504584672013118</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>5.735604545116623</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.3409174009186</v>
+        <v>-26.34007949353673</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.80355907640675</v>
+        <v>-1.804213691548836</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2359260110469958</v>
+        <v>-0.2354154112361685</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>5.413636345875147</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.25526755572803</v>
+        <v>-26.25436418683195</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.696333116133014</v>
+        <v>-1.696869900549524</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.3956259211103704</v>
+        <v>-0.3951284136023848</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.057884667462478</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.16167068271253</v>
+        <v>-26.16049237545677</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.76828841255114</v>
+        <v>-1.768785920059126</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3652779631232494</v>
+        <v>-0.3649768401578897</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.689136962691319</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.33862624792129</v>
+        <v>-26.33764432520816</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.485795794135217</v>
+        <v>-1.486293301643202</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7022869305721201</v>
+        <v>-0.7020250845152856</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.316641214852534</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.24298697566249</v>
+        <v>-26.24176939149821</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.389816122002523</v>
+        <v>-1.390195798784933</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7790732867388435</v>
+        <v>-0.778903086801901</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.942510431879561</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.061540750579</v>
+        <v>-26.0604409971403</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.469391138674534</v>
+        <v>-1.469757723154102</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9235206639916073</v>
+        <v>-0.9234028332660317</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.560505846777851</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.72674438231039</v>
+        <v>-25.72569699808304</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.380756248436048</v>
+        <v>-1.381109740612775</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.410174652921407</v>
+        <v>-1.41012228371004</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.159304744856529</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.73686473240704</v>
+        <v>-25.73568642515128</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.209679127203214</v>
+        <v>-1.209967157865732</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.696293839224488</v>
+        <v>-1.696097454681863</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.736053936381582</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.38915935353648</v>
+        <v>-25.38803341549209</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.177157846944366</v>
+        <v>-1.177380416092676</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.194469054655007</v>
+        <v>-2.194220300901014</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.290327202169492</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.85109189134722</v>
+        <v>-24.85020161475398</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.194701532752279</v>
+        <v>-1.19485864038638</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.303331552783959</v>
+        <v>-2.303161352847017</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.822938180096684</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.43081587782497</v>
+        <v>-24.42979467820332</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.361170163384826</v>
+        <v>-1.361301086413244</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.521724256486792</v>
+        <v>-2.52171116418395</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.347816566169662</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.78584976293302</v>
+        <v>-23.78492020943126</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.360855948116625</v>
+        <v>-1.361013055750725</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.723214797220956</v>
+        <v>-2.72339808946074</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.883795209473158</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.02971690461197</v>
+        <v>-23.02885281262442</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.338206264200439</v>
+        <v>-1.338284818017489</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.844580444563757</v>
+        <v>-2.844554259958073</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4456185259762493</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.65277641349584</v>
+        <v>-22.65203015223386</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.416105466108709</v>
+        <v>-1.416223296834284</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.150469008157844</v>
+        <v>-3.150324992826586</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.04635254511865246</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.0005047936182</v>
+        <v>-21.99947050169371</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.333257373726266</v>
+        <v>-1.333493035177417</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.377633554764634</v>
+        <v>-3.377463354827691</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.3071388427646725</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.51288197427812</v>
+        <v>-21.51184768235362</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.502697957103885</v>
+        <v>-1.50295980316072</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.608699607618257</v>
+        <v>-3.608529407681314</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.6179948528271069</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.08427925614853</v>
+        <v>-21.08380793324623</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.42218029462727</v>
+        <v>-1.422573063712522</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.61388415954358</v>
+        <v>-3.613740144212322</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.893045369550434</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.23796661585367</v>
+        <v>-20.23706324695759</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.150541195267137</v>
+        <v>-1.150986333563756</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.719735428018936</v>
+        <v>-3.719499766567785</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.138751537285467</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.43349697544097</v>
+        <v>-19.43294709872162</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.157597946498828</v>
+        <v>-1.158029992492605</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.861040652589685</v>
+        <v>-3.860857360349901</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.362719405030563</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.00636059522966</v>
+        <v>-19.00575834929894</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.181111722402568</v>
+        <v>-1.181609229910553</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.084041846892806</v>
+        <v>-4.083793093138812</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.57033729400089</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.52752271109637</v>
+        <v>-18.52710375740543</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.169250096027964</v>
+        <v>-1.169721418930266</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.200746634423951</v>
+        <v>-4.200589526789851</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.762735767392241</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.08364127555049</v>
+        <v>-18.08341870640218</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.132604740373973</v>
+        <v>-1.133049878670591</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.347328057039917</v>
+        <v>-4.3473542416456</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.940899648539642</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.31401025299962</v>
+        <v>-17.31364366852005</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.229081920014652</v>
+        <v>-1.229618704431163</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.646172961705155</v>
+        <v>-4.646055130979581</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.105588351380818</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.46464710614265</v>
+        <v>-16.46418887554318</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.153041825109907</v>
+        <v>-1.153552424920734</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.604958392359402</v>
+        <v>-4.604997669267927</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.255191935366981</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.84938742639857</v>
+        <v>-15.84925650337015</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.109575379675376</v>
+        <v>-1.11028236402883</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.828313078839249</v>
+        <v>-4.828234525022198</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.389078041025407</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.95463326558933</v>
+        <v>-14.9542797734126</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.062482366353688</v>
+        <v>-1.063071519981565</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954103924542553</v>
+        <v>-4.954090832239711</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.508747673739594</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.16549471180429</v>
+        <v>-14.1652459580503</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.06219433569117</v>
+        <v>-1.062770397016206</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.134476580793013</v>
+        <v>-5.134411119278805</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.614567006851678</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.43315056774666</v>
+        <v>-13.43254832181594</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.010532108677719</v>
+        <v>-1.01114744691128</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.03031421938424</v>
+        <v>-5.03015711175014</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.706664809161225</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.7383551482391</v>
+        <v>-12.73783145612543</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.010322631832251</v>
+        <v>-1.011029616185704</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.112023281419453</v>
+        <v>-5.111905450693877</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.786969614665473</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.37729562046997</v>
+        <v>-12.37683738987051</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.206733359063826</v>
+        <v>-1.207414158811595</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.280547403598151</v>
+        <v>-5.280377203661208</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.857194978732048</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.70774216084126</v>
+        <v>-11.7074410378759</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.297436833151304</v>
+        <v>-1.298156909807599</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.762697640350397</v>
+        <v>-5.762592901927663</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.918976556337722</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.28373484100912</v>
+        <v>-11.28342062574092</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.313959319337562</v>
+        <v>-1.314731765205224</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.896396236970103</v>
+        <v>-5.896304590850211</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.975262967223265</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.5119828653979</v>
+        <v>-10.51170792703822</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.303105800281771</v>
+        <v>-1.303878246149433</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.349913607407494</v>
+        <v>-6.349769592076235</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.028326075399478</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.02896853665809</v>
+        <v>-10.02844484454443</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.508812062530971</v>
+        <v>-1.509663062215683</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.18817129810081</v>
+        <v>-6.187909452043976</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.078701155039372</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.470215235978909</v>
+        <v>-9.469874836105024</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.496466020951223</v>
+        <v>-1.497277743727411</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.410661892593103</v>
+        <v>-6.410373861930585</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.1256143460668</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.177720098191907</v>
+        <v>-9.177314236803815</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.572322823616184</v>
+        <v>-1.573082177181004</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.287738261212137</v>
+        <v>-6.287345492126885</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.166167425797537</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.533434783047726</v>
+        <v>-8.53278016790564</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.662149113413267</v>
+        <v>-1.663052482309346</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.711117150507874</v>
+        <v>-6.710986227479458</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.196441789679149</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.9582899192107</v>
+        <v>-7.957596027160088</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.57289888494122</v>
+        <v>-1.573684423111724</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.572613678745254</v>
+        <v>-6.572378017294104</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.213145935359262</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.498894104797374</v>
+        <v>-7.498278766563812</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.57100050102917</v>
+        <v>-1.571943146833774</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.634252240524101</v>
+        <v>-6.633938025255899</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.213753152757385</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.070029540610953</v>
+        <v>-7.069178540926241</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.710551357019128</v>
+        <v>-1.711467818218049</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.813459681821647</v>
+        <v>-6.813197835764813</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.196989100301213</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.641963606897877</v>
+        <v>-6.64115188412169</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.592340954661183</v>
+        <v>-1.593205046648737</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.004607303310848</v>
+        <v>-7.004594211008007</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.162742198421491</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.40631524804965</v>
+        <v>-6.405582079090514</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.747903697026572</v>
+        <v>-1.748702327499918</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.030857370508508</v>
+        <v>-7.030752632085775</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.111983797599676</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.264944561964692</v>
+        <v>-6.26409356227998</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.738437962072005</v>
+        <v>-1.73923659254535</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.080451013672967</v>
+        <v>-7.080254629130341</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.046406978524462</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.989089741089524</v>
+        <v>-5.988225649101969</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.656794361551001</v>
+        <v>-1.657370422876037</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.045271995937249</v>
+        <v>-7.045219626725882</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.966326972668036</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.889771531732189</v>
+        <v>-5.888855070533269</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.943541978390485</v>
+        <v>-1.944235870441097</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.084535812159586</v>
+        <v>-7.084561996765269</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.87062416753817</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.780673372152086</v>
+        <v>-5.779625987924748</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.888213906581351</v>
+        <v>-1.888829244814912</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.821013940561324</v>
+        <v>-6.820974663652798</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.758493707981056</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.514192640111594</v>
+        <v>-5.513079794370047</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.899879148413329</v>
+        <v>-1.900455209738365</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.732352865717155</v>
+        <v>-6.732418327231363</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.626957345025049</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.594003318234757</v>
+        <v>-5.592733364859109</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.980750303066671</v>
+        <v>-1.981326364391707</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.554860516091874</v>
+        <v>-6.555017623725975</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.470648934393226</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.665448014842055</v>
+        <v>-5.664164969163566</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.067657009330048</v>
+        <v>-2.068233070655084</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.386545870758644</v>
+        <v>-6.38666370148422</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.286813151577243</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.871259015513989</v>
+        <v>-5.870028339046867</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.928590568545234</v>
+        <v>-1.929140445264587</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.297963349731525</v>
+        <v>-6.29830374960541</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.073167173184474</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.016989438445242</v>
+        <v>-6.015667115858228</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.177003922664144</v>
+        <v>-2.177409784052238</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.151630680869553</v>
+        <v>-6.151944896137755</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.826085955504112</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.494518092294358</v>
+        <v>-6.493182677404502</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.168127341337454</v>
+        <v>-2.168677218056807</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.923418750035426</v>
+        <v>-5.923837703726361</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.545778093080966</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.970135269928583</v>
+        <v>-6.968983147278511</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.217302030810977</v>
+        <v>-2.217812630621804</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.973536085313553</v>
+        <v>-5.973863392884597</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.234068017836221</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.454026782958779</v>
+        <v>-7.452848475703023</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.172866754966159</v>
+        <v>-2.173442816291195</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.604450975902454</v>
+        <v>-5.604817560382022</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8907952534072366</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.857047141335633</v>
+        <v>-7.855986664805452</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.195123669797094</v>
+        <v>-2.195516438882345</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.443297820223647</v>
+        <v>-5.443677497006058</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5185045567349842</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.229287495731588</v>
+        <v>-8.228122280778674</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.464615631491183</v>
+        <v>-2.465060769787801</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.046849797873341</v>
+        <v>-5.047177105444383</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1221374660758338</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.143300434021009</v>
+        <v>-9.142253049793672</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.392581781256006</v>
+        <v>-2.393079288763992</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.048905289419491</v>
+        <v>-5.04935042771611</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.294975299293648</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.888095358081122</v>
+        <v>-9.887205081487885</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.483245978434959</v>
+        <v>-2.483756578245786</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.878639890962844</v>
+        <v>-4.87907193695662</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.72696060965484</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.64767149204954</v>
+        <v>-10.64684667697052</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.532185006457331</v>
+        <v>-2.532433760211324</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.555089810835267</v>
+        <v>-4.555561133737569</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>1.163792584214892</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.78401791719716</v>
+        <v>-11.78314073290676</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.620977004329917</v>
+        <v>-2.621330496506644</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.451922464442466</v>
+        <v>-4.452433064253293</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.595583278845438</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.60089906070381</v>
+        <v>-12.60006115332194</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.763617643790523</v>
+        <v>-2.763971135967249</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.091910320900682</v>
+        <v>-4.092486382225719</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.010897643342308</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.62833061851111</v>
+        <v>-13.62741415731219</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.858314270244728</v>
+        <v>-2.85864157781577</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.763149504242099</v>
+        <v>-3.763555365630193</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>2.395030485983897</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.62745661757459</v>
+        <v>-14.62656634098136</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.890063104635913</v>
+        <v>-2.890351135298431</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.320079791472406</v>
+        <v>-3.320590391283233</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>2.734636233293444</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.00441338434745</v>
+        <v>-16.00371949229684</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.805905781969298</v>
+        <v>-2.806364012568758</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.068812315333999</v>
+        <v>-3.069309822841985</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>3.018067148338246</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.41997935220055</v>
+        <v>-17.41915453712152</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.034510481888677</v>
+        <v>-3.034798512551195</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.79318006360714</v>
+        <v>-2.79355974038955</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>3.233269405269291</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.89237900668959</v>
+        <v>-18.89158037621625</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.23584391498874</v>
+        <v>-3.236184314862625</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.661170374054016</v>
+        <v>-2.661445312413692</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.3708895415505</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.52995115382985</v>
+        <v>-20.52932272329344</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.453529634338119</v>
+        <v>-3.45398786493758</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.712596939616316</v>
+        <v>-2.712740954947575</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.425514819227911</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.00291377734108</v>
+        <v>-22.00223297759331</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.44920917440035</v>
+        <v>-3.449431743548659</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.611183961804306</v>
+        <v>-2.611458900163982</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>3.395106185335934</v>
       </c>
       <c r="E93" t="n">
-        <v>-23.99386027048237</v>
+        <v>-23.99316637843175</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.683220995393362</v>
+        <v>-3.683783964415556</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.578557943122725</v>
+        <v>-2.578780512271034</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.282913030264054</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.16764077280835</v>
+        <v>-26.16701234227195</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.484362007530384</v>
+        <v>-3.48485951503837</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.740365713943617</v>
+        <v>-2.740653744606135</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>3.099680782689353</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.34059646005531</v>
+        <v>-28.33992875261038</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.994857079934967</v>
+        <v>-3.99548551047137</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.949606897960083</v>
+        <v>-2.949724728685659</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.859774450648615</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.37456426033451</v>
+        <v>-30.37375253755832</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.97599107154004</v>
+        <v>-3.976619502076443</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.283368974304206</v>
+        <v>-3.283499897332623</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.585744543277861</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.63505508438124</v>
+        <v>-32.63412553087948</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.122205909676437</v>
+        <v>-4.122690324881581</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.367617943090713</v>
+        <v>-3.367735773816289</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.295149586572003</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.14406400096963</v>
+        <v>-35.1432391858906</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.408835695790345</v>
+        <v>-4.409451034023907</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.784804173142314</v>
+        <v>-3.784817265445156</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>2.017275586580114</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.54740494132244</v>
+        <v>-37.54663249545478</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.255629567936468</v>
+        <v>-4.256100890838769</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.186318916692369</v>
+        <v>-4.186489116629311</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.758931114011669</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.17267350714535</v>
+        <v>-40.17194033818622</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.378788860768585</v>
+        <v>-4.379312552882253</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.437154346836999</v>
+        <v>-4.4373114544711</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.550926321495718</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.61565794050291</v>
+        <v>-42.61497714075514</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.53402429556293</v>
+        <v>-4.534547987676599</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.95385517078856</v>
+        <v>-4.954103924542553</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.368074867151917</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.97740463472756</v>
+        <v>-44.97665837346558</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.620577509649581</v>
+        <v>-4.621061924854725</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.147490329817688</v>
+        <v>-5.147568883634739</v>
       </c>
     </row>
   </sheetData>
